--- a/src/test/resources/testData/TC_Admin.xlsx
+++ b/src/test/resources/testData/TC_Admin.xlsx
@@ -8,25 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EclipseJava\tech-connect\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29975A-891F-45FC-9FF7-B3D0308F72D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9533809-7759-4E54-A1F9-F1BCA822F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4419E1D6-9BFF-4212-81F1-99BD8A567C56}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19095" windowHeight="11625" activeTab="4" xr2:uid="{4419E1D6-9BFF-4212-81F1-99BD8A567C56}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="PanelDiscussionData" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="panelDiscussionDP" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>RAM</t>
   </si>
@@ -101,13 +115,154 @@
   </si>
   <si>
     <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Event Category</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Powered By</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Industry Tags</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Panel Discussion Image </t>
+  </si>
+  <si>
+    <t>Event Scope</t>
+  </si>
+  <si>
+    <t>Event URL </t>
+  </si>
+  <si>
+    <t>Zoom Meeting Link</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>GEN AI 2.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metapercept Technology Services LLP </t>
+  </si>
+  <si>
+    <t>metR</t>
+  </si>
+  <si>
+    <t>Gen AI 2.O is the next-generation Artificial Intelligence platform designed to seamlessly integrate advanced machine learning, natural language processing, and generative capabilities into business workflows, enabling smarter automation and transformative digital experiences.</t>
+  </si>
+  <si>
+    <t>Digital Transformation</t>
+  </si>
+  <si>
+    <t>AI &amp; Big Data</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Start Day</t>
+  </si>
+  <si>
+    <t>End Day</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>https://dev.tech-connect.space/</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/</t>
+  </si>
+  <si>
+    <t>Start date M Y</t>
+  </si>
+  <si>
+    <t>End date M Y</t>
+  </si>
+  <si>
+    <t>Panel Discussion Image</t>
+  </si>
+  <si>
+    <t>Event URL</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>EndDay</t>
+  </si>
+  <si>
+    <t>StartDay</t>
+  </si>
+  <si>
+    <t>EndYear</t>
+  </si>
+  <si>
+    <t>EndMonth</t>
+  </si>
+  <si>
+    <t>StartYear</t>
+  </si>
+  <si>
+    <t>StartMonth</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\tech-connect\src\test\resources\images\AI.png</t>
+  </si>
+  <si>
+    <t>Tech Connet</t>
+  </si>
+  <si>
+    <t>CyberSecurity</t>
+  </si>
+  <si>
+    <t>IoT Tech</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>GEN AI 3.O</t>
+  </si>
+  <si>
+    <t>GEN AI 4.O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +284,21 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,10 +322,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185C1026-CAB7-4790-B4F8-CE9706C4430D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -661,4 +846,492 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301B14E3-741D-44BD-9A82-3A105023CB2A}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{D516251F-A90B-4CC0-8823-BA7A10297011}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{54C6B48E-2161-4D9A-8978-D8FAD43CAA94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F9F6C5-338A-4F6B-946B-38FFBECEC817}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D21D2F-7F2A-4761-B18A-F937F3983EC6}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{BE32FB91-23B9-43EE-B8F1-0AE0FC04A852}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{5AB57C6F-DC49-4DFF-9B7F-5D2CCD8833CF}"/>
+    <hyperlink ref="O3:O4" r:id="rId3" display="https://dev.tech-connect.space/" xr:uid="{54B9D85C-8655-46F5-8B2C-59FDC867ECC3}"/>
+    <hyperlink ref="P3:P4" r:id="rId4" display="https://mail.google.com/" xr:uid="{408A1B5B-A2FC-40D5-A98D-1AA59D986264}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/TC_Admin.xlsx
+++ b/src/test/resources/testData/TC_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EclipseJava\tech-connect\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9533809-7759-4E54-A1F9-F1BCA822F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226002F3-5D63-4A4D-A011-32073168F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19095" windowHeight="11625" activeTab="4" xr2:uid="{4419E1D6-9BFF-4212-81F1-99BD8A567C56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="5" activeTab="8" xr2:uid="{4419E1D6-9BFF-4212-81F1-99BD8A567C56}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,16 @@
     <sheet name="PanelDiscussionData" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="panelDiscussionDP" sheetId="6" r:id="rId5"/>
+    <sheet name="UpdatePanelDiscussionDetais" sheetId="7" r:id="rId6"/>
+    <sheet name="AddNewSpeaker" sheetId="10" r:id="rId7"/>
+    <sheet name="UpdateSpeaker" sheetId="11" r:id="rId8"/>
+    <sheet name="AddExistingSpeaker" sheetId="12" r:id="rId9"/>
+    <sheet name="AddNewSponsor" sheetId="13" r:id="rId10"/>
+    <sheet name="UpdateSponsor" sheetId="14" r:id="rId11"/>
+    <sheet name="AddExistingSponsor" sheetId="15" r:id="rId12"/>
+    <sheet name="videosPath" sheetId="16" r:id="rId13"/>
+    <sheet name="EventSessions" sheetId="8" r:id="rId14"/>
+    <sheet name="EventSessionsUpdate" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>RAM</t>
   </si>
@@ -189,9 +199,6 @@
     <t>Private</t>
   </si>
   <si>
-    <t>https://mail.google.com/</t>
-  </si>
-  <si>
     <t>Start date M Y</t>
   </si>
   <si>
@@ -228,9 +235,6 @@
     <t>C:\EclipseJava\tech-connect\src\test\resources\images\AI.png</t>
   </si>
   <si>
-    <t>Tech Connet</t>
-  </si>
-  <si>
     <t>CyberSecurity</t>
   </si>
   <si>
@@ -256,13 +260,154 @@
   </si>
   <si>
     <t>GEN AI 4.O</t>
+  </si>
+  <si>
+    <t>GEN AI 5.O</t>
+  </si>
+  <si>
+    <t>GEN AI 6.O</t>
+  </si>
+  <si>
+    <t>sessionTitle</t>
+  </si>
+  <si>
+    <t>speakerName</t>
+  </si>
+  <si>
+    <t>startYear</t>
+  </si>
+  <si>
+    <t>startMonth</t>
+  </si>
+  <si>
+    <t>startDay</t>
+  </si>
+  <si>
+    <t>endYear</t>
+  </si>
+  <si>
+    <t>endMonth</t>
+  </si>
+  <si>
+    <t>endDay</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>GEN AI Day 1</t>
+  </si>
+  <si>
+    <t>AI Engineer</t>
+  </si>
+  <si>
+    <t>GEN AI</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\tech-connect\src\test\resources\images\gen4.jpg</t>
+  </si>
+  <si>
+    <t>SpeakerImage</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>guru@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\Tech-Connect\src\test\resources\photos\Ats.png</t>
+  </si>
+  <si>
+    <t>https://gurupawar.com</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Guru Pawar</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers </t>
+  </si>
+  <si>
+    <t>companyUrl</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CompanyLogo</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>BannerImage</t>
+  </si>
+  <si>
+    <t>https://metapercept.com</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\Tech-Connect\src\test\resources\Logo\metaperceptlogo.jpg</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\Tech-Connect\src\test\resources\images\test-banner-2.png</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Tech Connect is a leading platform for technology webinars.</t>
+  </si>
+  <si>
+    <t>Tech Connect</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Event Specific</t>
+  </si>
+  <si>
+    <t>Meta Tech</t>
+  </si>
+  <si>
+    <t>MetaPercept</t>
+  </si>
+  <si>
+    <t>videosPath</t>
+  </si>
+  <si>
+    <t>C:\EclipseJava\Tech-Connect\src\test\resources\videos\webinar.mov</t>
+  </si>
+  <si>
+    <t>Kajal Rokade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +445,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -341,6 +493,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,6 +930,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A9FC2D-E514-40A6-BB4F-3EB068B3B063}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{19AE329B-B26A-4985-A5DB-0324B2B2F389}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF4C410-A625-40F2-A138-D8A75B9CD5B6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{48B0C661-A41A-4691-A0B2-823543CCE953}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF28FBA-36AB-408E-80AE-F85343D9850D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CFA34A-6ACF-42FA-8A92-40503AF52D9A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF74D5-D36C-477A-B6B4-B10741E5BD16}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E2B14F-9455-44B9-9E7E-F131EA02C80F}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B200CD-EB48-4710-AE52-10FE91C60786}">
   <dimension ref="A1:D5"/>
@@ -850,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301B14E3-741D-44BD-9A82-3A105023CB2A}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,11 +1414,10 @@
     <col min="13" max="13" width="65.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -897,22 +1437,22 @@
         <v>30</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>31</v>
@@ -923,11 +1463,8 @@
       <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -950,7 +1487,7 @@
         <v>2026</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3">
         <v>20</v>
@@ -959,28 +1496,24 @@
         <v>2026</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3">
         <v>30</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{D516251F-A90B-4CC0-8823-BA7A10297011}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{54C6B48E-2161-4D9A-8978-D8FAD43CAA94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1033,7 +1566,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1043,12 +1576,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1058,7 +1591,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -1073,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D21D2F-7F2A-4761-B18A-F937F3983EC6}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,11 +1629,10 @@
     <col min="13" max="13" width="57.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1120,22 +1652,22 @@
         <v>30</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>31</v>
@@ -1146,11 +1678,8 @@
       <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1170,25 +1699,25 @@
         <v>43</v>
       </c>
       <c r="G2" s="3">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3">
         <v>30</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>46</v>
@@ -1196,16 +1725,13 @@
       <c r="O2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
@@ -1214,124 +1740,424 @@
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3">
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L3" s="3">
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2025</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="8">
         <v>20</v>
       </c>
-      <c r="J4" s="3">
-        <v>2025</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="3">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="M6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{BE32FB91-23B9-43EE-B8F1-0AE0FC04A852}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{5AB57C6F-DC49-4DFF-9B7F-5D2CCD8833CF}"/>
-    <hyperlink ref="O3:O4" r:id="rId3" display="https://dev.tech-connect.space/" xr:uid="{54B9D85C-8655-46F5-8B2C-59FDC867ECC3}"/>
-    <hyperlink ref="P3:P4" r:id="rId4" display="https://mail.google.com/" xr:uid="{408A1B5B-A2FC-40D5-A98D-1AA59D986264}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{54B9D85C-8655-46F5-8B2C-59FDC867ECC3}"/>
+    <hyperlink ref="O6" r:id="rId3" xr:uid="{B92DEE95-EDC6-4502-B0F5-D547429340C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34405B-DAAD-4DF7-8910-19CA078703B1}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="3">
+        <v>30</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{723BBCC6-D44C-4C79-975D-5235366B0D20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327B4B1-9B4A-4455-919D-B21124D6EE9F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AFC716AE-AD63-4F0E-8AD7-6CE7AD96D460}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{A214FB8C-0216-42BB-8C0A-2349D2D7A321}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7FC1C7-896D-490B-9382-FC8C1ACE5115}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9A30E5A1-CF06-4AC7-B872-0F241C1258DC}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{036FF660-3217-4A77-9610-213DFDC25657}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09522390-C714-48C9-BDA3-80BD256729B7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>